--- a/練習用ファイル.xlsx
+++ b/練習用ファイル.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Git練習用</t>
     <rPh sb="3" eb="6">
@@ -41,6 +41,13 @@
   </si>
   <si>
     <t>Git練習用3</t>
+    <rPh sb="3" eb="6">
+      <t>レンシュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git練習用4</t>
     <rPh sb="3" eb="6">
       <t>レンシュウヨウ</t>
     </rPh>
@@ -374,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -397,6 +404,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/練習用ファイル.xlsx
+++ b/練習用ファイル.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Git練習用</t>
     <rPh sb="3" eb="6">
@@ -50,6 +51,29 @@
     <t>Git練習用4</t>
     <rPh sb="3" eb="6">
       <t>レンシュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git練習用5</t>
+    <rPh sb="3" eb="5">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分確認用</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,32 +405,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/練習用ファイル.xlsx
+++ b/練習用ファイル.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Git練習用</t>
     <rPh sb="3" eb="6">
@@ -66,6 +66,19 @@
   </si>
   <si>
     <t>差分確認用</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分確認用2</t>
     <rPh sb="0" eb="2">
       <t>サブン</t>
     </rPh>
@@ -405,35 +418,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,6 +472,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/練習用ファイル.xlsx
+++ b/練習用ファイル.xlsx
@@ -55,16 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Git練習用5</t>
-    <rPh sb="3" eb="5">
-      <t>レンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>差分確認用</t>
     <rPh sb="0" eb="2">
       <t>サブン</t>
@@ -86,6 +76,16 @@
       <t>カクニン</t>
     </rPh>
     <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git練習用7</t>
+    <rPh sb="3" eb="5">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -469,12 +469,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/練習用ファイル.xlsx
+++ b/練習用ファイル.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Git練習用</t>
     <rPh sb="3" eb="6">
@@ -82,6 +82,16 @@
   </si>
   <si>
     <t>Git練習用7</t>
+    <rPh sb="3" eb="5">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git練習用8</t>
     <rPh sb="3" eb="5">
       <t>レンシュウ</t>
     </rPh>
@@ -418,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,6 +459,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/練習用ファイル.xlsx
+++ b/練習用ファイル.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Git練習用</t>
     <rPh sb="3" eb="6">
@@ -96,6 +96,19 @@
       <t>レンシュウ</t>
     </rPh>
     <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差分確認用3</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -430,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -474,10 +487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,6 +505,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
